--- a/Tabla IP.xlsx
+++ b/Tabla IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\Telematica1\Laboratorio2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8096CC3-0D31-47BF-8FC2-2676B8E84F06}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A70557C-338E-4E67-AA6F-3DF6E87AD6EB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{8830B624-FEB9-45B9-BDFA-8B502CB96651}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>R1_BOG</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>255.255.252.0</t>
+  </si>
+  <si>
+    <t>209.100.6.1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>209.100.6.6</t>
+  </si>
+  <si>
+    <t>209.100.6.4</t>
+  </si>
+  <si>
+    <t>209.100.6.5</t>
+  </si>
+  <si>
+    <t>209.100.6.2</t>
+  </si>
+  <si>
+    <t>209.100.6.3</t>
   </si>
 </sst>
 </file>
@@ -240,23 +261,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +598,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,12 +620,15 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -613,7 +640,10 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -622,10 +652,10 @@
       <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,17 +665,18 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,7 +686,8 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -664,10 +696,10 @@
       <c r="I5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -677,31 +709,35 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -710,37 +746,42 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>3</v>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8"/>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -749,36 +790,41 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>3</v>
+      <c r="D11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -790,9 +836,12 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -802,67 +851,80 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
